--- a/DL/DLICP4/Book1.xlsx
+++ b/DL/DLICP4/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hemasreekoganti\Documents\GitHub\CSEE5590_Lab\DL\DLICP4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94D60610-0E89-4DB5-B2CE-A23F40EB6C7E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4959881-5417-46F7-BBAC-1F89C3242791}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{1712D8A4-6D1D-4E84-9A1F-CE33D7AB99CB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>AdaGradOptimize</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>RMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacked_ae: </t>
+  </si>
+  <si>
+    <t>Simple_ae</t>
+  </si>
+  <si>
+    <t>LearningRate</t>
+  </si>
+  <si>
+    <t>Loss</t>
   </si>
 </sst>
 </file>
@@ -96,8 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,198 +427,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B123B5F3-DFB5-423E-8085-53468B397702}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0.1</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0.26100000000000001</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>0.26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="M2">
+      <c r="L3">
+        <v>0.1</v>
+      </c>
+      <c r="M3">
         <v>0.45500000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <v>0.246</v>
-      </c>
-      <c r="D3">
-        <v>0.248</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3">
-        <v>0.442</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.246</v>
+      </c>
+      <c r="D4">
+        <v>0.248</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>0.1</v>
+      </c>
+      <c r="M4">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>0.3</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>0.24</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>0.23699999999999999</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="M4">
+      <c r="L5">
+        <v>0.1</v>
+      </c>
+      <c r="M5">
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>0.1</v>
+      </c>
+      <c r="M6">
         <v>0.43840000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>0.1</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>0.104</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>0.1145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>0.2</v>
-      </c>
-      <c r="C7">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>0.05</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>6.7199999999999996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>0.05</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>0.16600000000000001</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>0.161</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>0.1</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>0.26600000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>0.2</v>
-      </c>
-      <c r="C17">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="D17">
-        <v>0.255</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>0.3</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>0.26</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>0.248</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>